--- a/pred_ohlcv/54_21/2020-01-21 BTG ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-21 BTG ohlcv.xlsx
@@ -6346,7 +6346,7 @@
         <v>4695.445992190002</v>
       </c>
       <c r="H229">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="230" spans="1:8">
@@ -6372,7 +6372,7 @@
         <v>4707.178002220002</v>
       </c>
       <c r="H230">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="231" spans="1:8">
@@ -6398,7 +6398,7 @@
         <v>4391.765602220002</v>
       </c>
       <c r="H231">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="232" spans="1:8">
@@ -6424,7 +6424,7 @@
         <v>4070.270202220002</v>
       </c>
       <c r="H232">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="233" spans="1:8">
@@ -6450,7 +6450,7 @@
         <v>4450.080332810002</v>
       </c>
       <c r="H233">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="234" spans="1:8">
@@ -6476,7 +6476,7 @@
         <v>4071.214532810002</v>
       </c>
       <c r="H234">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="235" spans="1:8">
@@ -6502,7 +6502,7 @@
         <v>3752.768332810002</v>
       </c>
       <c r="H235">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="236" spans="1:8">
@@ -6528,7 +6528,7 @@
         <v>4259.889532810002</v>
       </c>
       <c r="H236">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="237" spans="1:8">
@@ -6554,7 +6554,7 @@
         <v>4153.049132810002</v>
       </c>
       <c r="H237">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="238" spans="1:8">
@@ -6580,7 +6580,7 @@
         <v>4310.011232810001</v>
       </c>
       <c r="H238">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="239" spans="1:8">
@@ -6606,7 +6606,7 @@
         <v>4193.541732810001</v>
       </c>
       <c r="H239">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="240" spans="1:8">
@@ -6632,7 +6632,7 @@
         <v>4179.261732810001</v>
       </c>
       <c r="H240">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="241" spans="1:8">
@@ -6658,7 +6658,7 @@
         <v>3969.194832810002</v>
       </c>
       <c r="H241">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="242" spans="1:8">
@@ -6684,7 +6684,7 @@
         <v>4222.090132810002</v>
       </c>
       <c r="H242">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="243" spans="1:8">
@@ -6710,7 +6710,7 @@
         <v>4242.946132810001</v>
       </c>
       <c r="H243">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="244" spans="1:8">
@@ -6736,7 +6736,7 @@
         <v>4178.382732810001</v>
       </c>
       <c r="H244">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="245" spans="1:8">
@@ -6762,7 +6762,7 @@
         <v>3741.658332810001</v>
       </c>
       <c r="H245">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="246" spans="1:8">
@@ -6788,7 +6788,7 @@
         <v>3784.058265820001</v>
       </c>
       <c r="H246">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="247" spans="1:8">
@@ -6814,7 +6814,7 @@
         <v>3784.058265820001</v>
       </c>
       <c r="H247">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="248" spans="1:8">
@@ -6840,7 +6840,7 @@
         <v>2770.342665820001</v>
       </c>
       <c r="H248">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="249" spans="1:8">
@@ -6866,7 +6866,7 @@
         <v>2513.818265820001</v>
       </c>
       <c r="H249">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="250" spans="1:8">
@@ -6892,7 +6892,7 @@
         <v>2513.818265820001</v>
       </c>
       <c r="H250">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="251" spans="1:8">
@@ -6918,7 +6918,7 @@
         <v>2364.110665820001</v>
       </c>
       <c r="H251">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="252" spans="1:8">
@@ -6944,7 +6944,7 @@
         <v>2322.168165820001</v>
       </c>
       <c r="H252">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="253" spans="1:8">
@@ -6970,7 +6970,7 @@
         <v>2322.168165820001</v>
       </c>
       <c r="H253">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="254" spans="1:8">
@@ -6996,7 +6996,7 @@
         <v>2628.463965820001</v>
       </c>
       <c r="H254">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="255" spans="1:8">
@@ -7022,7 +7022,7 @@
         <v>3071.088365820001</v>
       </c>
       <c r="H255">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="256" spans="1:8">
@@ -7048,7 +7048,7 @@
         <v>2898.874965820001</v>
       </c>
       <c r="H256">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="257" spans="1:8">
@@ -7074,7 +7074,7 @@
         <v>2898.874965820001</v>
       </c>
       <c r="H257">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="258" spans="1:8">
@@ -7100,7 +7100,7 @@
         <v>2924.123265820001</v>
       </c>
       <c r="H258">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="259" spans="1:8">
@@ -7126,7 +7126,7 @@
         <v>2850.949965820001</v>
       </c>
       <c r="H259">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="260" spans="1:8">
@@ -7152,7 +7152,7 @@
         <v>2850.949965820001</v>
       </c>
       <c r="H260">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="261" spans="1:8">
@@ -7178,7 +7178,7 @@
         <v>1781.780765820001</v>
       </c>
       <c r="H261">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="262" spans="1:8">
@@ -7204,7 +7204,7 @@
         <v>1781.780765820001</v>
       </c>
       <c r="H262">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="263" spans="1:8">
@@ -7230,7 +7230,7 @@
         <v>1781.780765820001</v>
       </c>
       <c r="H263">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="264" spans="1:8">
@@ -7256,7 +7256,7 @@
         <v>2018.787765820001</v>
       </c>
       <c r="H264">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="265" spans="1:8">
@@ -7282,7 +7282,7 @@
         <v>1843.168945820001</v>
       </c>
       <c r="H265">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="266" spans="1:8">
@@ -19710,7 +19710,7 @@
         <v>-8818.255992969993</v>
       </c>
       <c r="H743">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="744" spans="1:8">
@@ -19736,7 +19736,7 @@
         <v>-9216.858492969994</v>
       </c>
       <c r="H744">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="745" spans="1:8">
@@ -19762,7 +19762,7 @@
         <v>-10199.54039296999</v>
       </c>
       <c r="H745">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="746" spans="1:8">
@@ -19788,7 +19788,7 @@
         <v>-10199.54039296999</v>
       </c>
       <c r="H746">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="747" spans="1:8">
@@ -20828,7 +20828,7 @@
         <v>4086.617530440009</v>
       </c>
       <c r="H786">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="787" spans="1:8">
@@ -20854,7 +20854,7 @@
         <v>4086.617530440009</v>
       </c>
       <c r="H787">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="788" spans="1:8">
@@ -20880,7 +20880,7 @@
         <v>5474.472863770009</v>
       </c>
       <c r="H788">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="789" spans="1:8">
@@ -20906,7 +20906,7 @@
         <v>5356.886563770009</v>
       </c>
       <c r="H789">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="790" spans="1:8">
@@ -20932,7 +20932,7 @@
         <v>5140.502963770009</v>
       </c>
       <c r="H790">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="791" spans="1:8">
@@ -20958,7 +20958,7 @@
         <v>4805.040795260009</v>
       </c>
       <c r="H791">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="792" spans="1:8">
@@ -20984,7 +20984,7 @@
         <v>4467.982295260009</v>
       </c>
       <c r="H792">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="793" spans="1:8">
@@ -21010,7 +21010,7 @@
         <v>4467.982295260009</v>
       </c>
       <c r="H793">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="794" spans="1:8">
@@ -21036,7 +21036,7 @@
         <v>4572.865195260008</v>
       </c>
       <c r="H794">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="795" spans="1:8">
@@ -21062,7 +21062,7 @@
         <v>4572.865195260008</v>
       </c>
       <c r="H795">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="796" spans="1:8">
@@ -21088,7 +21088,7 @@
         <v>4769.266995260008</v>
       </c>
       <c r="H796">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="797" spans="1:8">
@@ -21114,7 +21114,7 @@
         <v>4769.266995260008</v>
       </c>
       <c r="H797">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="798" spans="1:8">
@@ -21140,7 +21140,7 @@
         <v>5081.621595260008</v>
       </c>
       <c r="H798">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="799" spans="1:8">
@@ -21348,7 +21348,7 @@
         <v>4756.275656470008</v>
       </c>
       <c r="H806">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="807" spans="1:8">

--- a/pred_ohlcv/54_21/2020-01-21 BTG ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-21 BTG ohlcv.xlsx
@@ -6320,7 +6320,7 @@
         <v>4817.132033610002</v>
       </c>
       <c r="H228">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="229" spans="1:8">
@@ -6346,7 +6346,7 @@
         <v>4695.445992190002</v>
       </c>
       <c r="H229">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="230" spans="1:8">
@@ -6372,7 +6372,7 @@
         <v>4707.178002220002</v>
       </c>
       <c r="H230">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="231" spans="1:8">
@@ -6398,7 +6398,7 @@
         <v>4391.765602220002</v>
       </c>
       <c r="H231">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="232" spans="1:8">
@@ -6424,7 +6424,7 @@
         <v>4070.270202220002</v>
       </c>
       <c r="H232">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="233" spans="1:8">
@@ -6450,7 +6450,7 @@
         <v>4450.080332810002</v>
       </c>
       <c r="H233">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="234" spans="1:8">
@@ -6476,7 +6476,7 @@
         <v>4071.214532810002</v>
       </c>
       <c r="H234">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="235" spans="1:8">
@@ -6502,7 +6502,7 @@
         <v>3752.768332810002</v>
       </c>
       <c r="H235">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="236" spans="1:8">
@@ -6528,7 +6528,7 @@
         <v>4259.889532810002</v>
       </c>
       <c r="H236">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="237" spans="1:8">
@@ -6554,7 +6554,7 @@
         <v>4153.049132810002</v>
       </c>
       <c r="H237">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="238" spans="1:8">
@@ -6580,7 +6580,7 @@
         <v>4310.011232810001</v>
       </c>
       <c r="H238">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="239" spans="1:8">
@@ -6606,7 +6606,7 @@
         <v>4193.541732810001</v>
       </c>
       <c r="H239">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="240" spans="1:8">
@@ -6632,7 +6632,7 @@
         <v>4179.261732810001</v>
       </c>
       <c r="H240">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="241" spans="1:8">
@@ -6658,7 +6658,7 @@
         <v>3969.194832810002</v>
       </c>
       <c r="H241">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="242" spans="1:8">
@@ -6684,7 +6684,7 @@
         <v>4222.090132810002</v>
       </c>
       <c r="H242">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="243" spans="1:8">
@@ -6710,7 +6710,7 @@
         <v>4242.946132810001</v>
       </c>
       <c r="H243">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="244" spans="1:8">
@@ -6736,7 +6736,7 @@
         <v>4178.382732810001</v>
       </c>
       <c r="H244">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="245" spans="1:8">
@@ -6762,7 +6762,7 @@
         <v>3741.658332810001</v>
       </c>
       <c r="H245">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="246" spans="1:8">
@@ -6788,7 +6788,7 @@
         <v>3784.058265820001</v>
       </c>
       <c r="H246">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="247" spans="1:8">
@@ -6814,7 +6814,7 @@
         <v>3784.058265820001</v>
       </c>
       <c r="H247">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="248" spans="1:8">
@@ -6840,7 +6840,7 @@
         <v>2770.342665820001</v>
       </c>
       <c r="H248">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="249" spans="1:8">
@@ -6866,7 +6866,7 @@
         <v>2513.818265820001</v>
       </c>
       <c r="H249">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="250" spans="1:8">
@@ -6892,7 +6892,7 @@
         <v>2513.818265820001</v>
       </c>
       <c r="H250">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="251" spans="1:8">
@@ -6918,7 +6918,7 @@
         <v>2364.110665820001</v>
       </c>
       <c r="H251">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="252" spans="1:8">
@@ -6944,7 +6944,7 @@
         <v>2322.168165820001</v>
       </c>
       <c r="H252">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="253" spans="1:8">
@@ -6970,7 +6970,7 @@
         <v>2322.168165820001</v>
       </c>
       <c r="H253">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="254" spans="1:8">
@@ -7048,7 +7048,7 @@
         <v>2898.874965820001</v>
       </c>
       <c r="H256">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="257" spans="1:8">
@@ -7074,7 +7074,7 @@
         <v>2898.874965820001</v>
       </c>
       <c r="H257">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="258" spans="1:8">
@@ -7100,7 +7100,7 @@
         <v>2924.123265820001</v>
       </c>
       <c r="H258">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="259" spans="1:8">
@@ -7126,7 +7126,7 @@
         <v>2850.949965820001</v>
       </c>
       <c r="H259">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="260" spans="1:8">
@@ -7152,7 +7152,7 @@
         <v>2850.949965820001</v>
       </c>
       <c r="H260">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="261" spans="1:8">
@@ -19710,7 +19710,7 @@
         <v>-8818.255992969993</v>
       </c>
       <c r="H743">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="744" spans="1:8">
@@ -19736,7 +19736,7 @@
         <v>-9216.858492969994</v>
       </c>
       <c r="H744">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="745" spans="1:8">
@@ -19762,7 +19762,7 @@
         <v>-10199.54039296999</v>
       </c>
       <c r="H745">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="746" spans="1:8">
@@ -19788,7 +19788,7 @@
         <v>-10199.54039296999</v>
       </c>
       <c r="H746">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="747" spans="1:8">
@@ -19814,7 +19814,7 @@
         <v>-9977.111892969993</v>
       </c>
       <c r="H747">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="748" spans="1:8">
@@ -20126,7 +20126,7 @@
         <v>-8043.549272559992</v>
       </c>
       <c r="H759">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="760" spans="1:8">
@@ -20828,7 +20828,7 @@
         <v>4086.617530440009</v>
       </c>
       <c r="H786">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="787" spans="1:8">
@@ -20854,7 +20854,7 @@
         <v>4086.617530440009</v>
       </c>
       <c r="H787">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="788" spans="1:8">
@@ -20880,7 +20880,7 @@
         <v>5474.472863770009</v>
       </c>
       <c r="H788">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="789" spans="1:8">
@@ -20906,7 +20906,7 @@
         <v>5356.886563770009</v>
       </c>
       <c r="H789">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="790" spans="1:8">
@@ -20932,7 +20932,7 @@
         <v>5140.502963770009</v>
       </c>
       <c r="H790">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="791" spans="1:8">
@@ -20958,7 +20958,7 @@
         <v>4805.040795260009</v>
       </c>
       <c r="H791">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="792" spans="1:8">
@@ -20984,7 +20984,7 @@
         <v>4467.982295260009</v>
       </c>
       <c r="H792">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="793" spans="1:8">
@@ -21010,7 +21010,7 @@
         <v>4467.982295260009</v>
       </c>
       <c r="H793">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="794" spans="1:8">
@@ -21036,7 +21036,7 @@
         <v>4572.865195260008</v>
       </c>
       <c r="H794">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="795" spans="1:8">
@@ -21062,7 +21062,7 @@
         <v>4572.865195260008</v>
       </c>
       <c r="H795">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="796" spans="1:8">
@@ -21088,7 +21088,7 @@
         <v>4769.266995260008</v>
       </c>
       <c r="H796">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="797" spans="1:8">
@@ -21114,7 +21114,7 @@
         <v>4769.266995260008</v>
       </c>
       <c r="H797">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="798" spans="1:8">
@@ -21140,7 +21140,7 @@
         <v>5081.621595260008</v>
       </c>
       <c r="H798">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="799" spans="1:8">
@@ -21348,7 +21348,7 @@
         <v>4756.275656470008</v>
       </c>
       <c r="H806">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="807" spans="1:8">
